--- a/clientes_exportados.xlsx
+++ b/clientes_exportados.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
-    <sheet name="clientes_exportados" sheetId="1" r:id="rId4"/>
+    <sheet name="clientes_exportados" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -26,22 +30,88 @@
     <t>Telefono</t>
   </si>
   <si>
+    <t>ID Referente</t>
+  </si>
+  <si>
+    <t>ID Contacto</t>
+  </si>
+  <si>
+    <t>Nombre Contacto</t>
+  </si>
+  <si>
+    <t>Telefono Contacto</t>
+  </si>
+  <si>
     <t>Diego Villaverde Prado</t>
   </si>
   <si>
+    <t>ANTONIO MARIÑO CARRION</t>
+  </si>
+  <si>
+    <t>ALBA MUÑOZ MONTSERRAT</t>
+  </si>
+  <si>
+    <t>María Navarro Velazquez</t>
+  </si>
+  <si>
+    <t>TERESA BERTRAN PAREJO</t>
+  </si>
+  <si>
+    <t>DANIEL BERNAT SOBRINO</t>
+  </si>
+  <si>
     <t>Roberto Andres Ledesma</t>
   </si>
   <si>
+    <t>MANUEL CALDERON ESTRADA</t>
+  </si>
+  <si>
+    <t>ANA MARIA CARREIRA GEORGIEVA</t>
+  </si>
+  <si>
     <t>Educardo Ponce Moraga</t>
   </si>
   <si>
+    <t>adsad</t>
+  </si>
+  <si>
+    <t>Marty McFly</t>
+  </si>
+  <si>
+    <t>Prueba modificacion de campos</t>
+  </si>
+  <si>
+    <t>contacto añadido</t>
+  </si>
+  <si>
+    <t>TERESA IBAÑEZ DE DIEGO</t>
+  </si>
+  <si>
     <t>Cristina Martín</t>
   </si>
   <si>
+    <t xml:space="preserve">prueba contacto refresh </t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>prueba contacto refresg</t>
+  </si>
+  <si>
+    <t>Probando alta de contactos</t>
+  </si>
+  <si>
+    <t>Añadiendo contactos</t>
+  </si>
+  <si>
+    <t>Contacto nuevo</t>
+  </si>
+  <si>
     <t>remodificado</t>
   </si>
   <si>
-    <t>modificado importacion</t>
+    <t>Alta modificada - 5 Abril 2018</t>
   </si>
   <si>
     <t>Prueba alta - 5 Abril 2018</t>
@@ -50,29 +120,24 @@
     <t>00009999</t>
   </si>
   <si>
+    <t>Alta modificada sin errores</t>
+  </si>
+  <si>
     <t>Alta 6 de Abril de 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">prueba contacto refresh </t>
-  </si>
-  <si>
-    <t>importado</t>
-  </si>
-  <si>
-    <t>Exportado para importacion</t>
+    <t>Hola que tal</t>
+  </si>
+  <si>
+    <t>qweqwe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -83,28 +148,29 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -394,19 +460,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,140 +479,1069 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>776648373</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>645678954</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>776648373</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>654321987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>776648373</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>564387267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>776648373</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>645678954</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>564387267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
+        <v>776648373</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>634576838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>776648373</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>876543987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>776648373</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>876543987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>776648373</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>904858234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>776648373</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>904858234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>776648373</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>634576838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>645678954</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>645678954</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>984502393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>645678954</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>984502393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>645678954</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>654321987</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>12123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>654321987</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>555555555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>654321987</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>12313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>654321987</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>654321987</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>555555555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>654321987</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>12313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>654321987</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>654321987</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>12123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>654321987</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>987654321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>654321987</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>987654321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>645678954</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>242432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>645678954</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>12341234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>645678954</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>645678954</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <v>123</v>
+      </c>
+      <c r="G29">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>645678954</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30">
+        <v>1231321321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>645678954</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31">
+        <v>13123123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>645678954</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>645678954</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33">
+        <v>242432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>645678954</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34">
+        <v>12341234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>645678954</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>645678954</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <v>123</v>
+      </c>
+      <c r="G36">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>645678954</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37">
+        <v>1231321321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>645678954</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38">
+        <v>13123123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39">
+        <v>645678954</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
         <v>456</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>37</v>
+      </c>
+      <c r="F40">
+        <v>123132</v>
+      </c>
+      <c r="G40">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <v>456</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>37</v>
+      </c>
+      <c r="F41">
+        <v>123132</v>
+      </c>
+      <c r="G41">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>456</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>36</v>
+      </c>
+      <c r="F42">
+        <v>123</v>
+      </c>
+      <c r="G42">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>456</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>36</v>
+      </c>
+      <c r="F43">
+        <v>123</v>
+      </c>
+      <c r="G43">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>321321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>555777999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>20189596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
         <v>87767766</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49">
         <v>242432</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>33333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>222222222</v>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>132123</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/clientes_exportados.xlsx
+++ b/clientes_exportados.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="clientes_exportados" sheetId="1" r:id="rId1"/>
+    <sheet name="clientes_exportados" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -48,64 +44,64 @@
     <t>ANTONIO MARIÑO CARRION</t>
   </si>
   <si>
+    <t>TERESA BERTRAN PAREJO</t>
+  </si>
+  <si>
     <t>ALBA MUÑOZ MONTSERRAT</t>
   </si>
   <si>
+    <t>DANIEL BERNAT SOBRINO</t>
+  </si>
+  <si>
     <t>María Navarro Velazquez</t>
   </si>
   <si>
-    <t>TERESA BERTRAN PAREJO</t>
-  </si>
-  <si>
-    <t>DANIEL BERNAT SOBRINO</t>
-  </si>
-  <si>
     <t>Roberto Andres Ledesma</t>
   </si>
   <si>
+    <t>ANA MARIA CARREIRA GEORGIEVA</t>
+  </si>
+  <si>
     <t>MANUEL CALDERON ESTRADA</t>
   </si>
   <si>
-    <t>ANA MARIA CARREIRA GEORGIEVA</t>
-  </si>
-  <si>
     <t>Educardo Ponce Moraga</t>
   </si>
   <si>
+    <t>contacto añadido</t>
+  </si>
+  <si>
+    <t>Marty McFly</t>
+  </si>
+  <si>
+    <t>TERESA IBAÑEZ DE DIEGO</t>
+  </si>
+  <si>
     <t>adsad</t>
   </si>
   <si>
-    <t>Marty McFly</t>
-  </si>
-  <si>
     <t>Prueba modificacion de campos</t>
   </si>
   <si>
-    <t>contacto añadido</t>
-  </si>
-  <si>
-    <t>TERESA IBAÑEZ DE DIEGO</t>
-  </si>
-  <si>
     <t>Cristina Martín</t>
   </si>
   <si>
     <t xml:space="preserve">prueba contacto refresh </t>
   </si>
   <si>
+    <t>prueba contacto refresg</t>
+  </si>
+  <si>
+    <t>Probando alta de contactos</t>
+  </si>
+  <si>
+    <t>Contacto nuevo</t>
+  </si>
+  <si>
     <t>qwerty</t>
   </si>
   <si>
-    <t>prueba contacto refresg</t>
-  </si>
-  <si>
-    <t>Probando alta de contactos</t>
-  </si>
-  <si>
     <t>Añadiendo contactos</t>
-  </si>
-  <si>
-    <t>Contacto nuevo</t>
   </si>
   <si>
     <t>remodificado</t>
@@ -135,9 +131,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -148,29 +149,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -460,14 +460,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -529,13 +532,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>123456789</v>
+        <v>876543987</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -555,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>564387267</v>
@@ -575,13 +578,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>564387267</v>
+        <v>904858234</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -601,7 +604,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>634576838</v>
@@ -621,13 +624,13 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>876543987</v>
+        <v>634576838</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -644,13 +647,13 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>876543987</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -667,13 +670,13 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>904858234</v>
+        <v>876543987</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -690,13 +693,13 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>904858234</v>
+        <v>564387267</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -713,13 +716,13 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>634576838</v>
+        <v>904858234</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -736,13 +739,13 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12">
-        <v>123456789</v>
+        <v>984502393</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -759,13 +762,13 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
       <c r="G13">
-        <v>984502393</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -782,13 +785,13 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14">
-        <v>984502393</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -805,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15">
-        <v>123456789</v>
+        <v>984502393</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -828,13 +831,13 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16">
-        <v>12123</v>
+        <v>123123</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -874,13 +877,13 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18">
-        <v>12313</v>
+        <v>123123</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -897,13 +900,13 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19">
-        <v>123123</v>
+        <v>987654321</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -920,13 +923,13 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G20">
-        <v>555555555</v>
+        <v>12123</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -946,7 +949,7 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G21">
         <v>12313</v>
@@ -966,13 +969,13 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
       <c r="G22">
-        <v>123123</v>
+        <v>12123</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -989,13 +992,13 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G23">
-        <v>12123</v>
+        <v>12313</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1012,13 +1015,13 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G24">
-        <v>987654321</v>
+        <v>555555555</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1038,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25">
         <v>987654321</v>
@@ -1081,13 +1084,13 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
       </c>
       <c r="G27">
-        <v>12341234</v>
+        <v>123123123</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1107,7 +1110,7 @@
         <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28">
         <v>123123123</v>
@@ -1127,13 +1130,13 @@
         <v>4</v>
       </c>
       <c r="E29">
-        <v>19</v>
-      </c>
-      <c r="F29">
-        <v>123</v>
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
       </c>
       <c r="G29">
-        <v>123</v>
+        <v>1231321321</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1153,7 +1156,7 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30">
         <v>1231321321</v>
@@ -1173,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31">
-        <v>13123123</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1199,7 +1202,7 @@
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G32">
         <v>123</v>
@@ -1219,13 +1222,13 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G33">
-        <v>242432</v>
+        <v>12341234</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1245,7 +1248,7 @@
         <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G34">
         <v>12341234</v>
@@ -1265,13 +1268,13 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>28</v>
-      </c>
-      <c r="F35" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>123</v>
       </c>
       <c r="G35">
-        <v>123123123</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1311,13 +1314,13 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G37">
-        <v>1231321321</v>
+        <v>13123123</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1337,7 +1340,7 @@
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G38">
         <v>13123123</v>
@@ -1357,13 +1360,13 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G39">
-        <v>123</v>
+        <v>242432</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1380,13 +1383,13 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40">
-        <v>123132</v>
+        <v>123</v>
       </c>
       <c r="G40">
-        <v>123123</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1449,13 +1452,13 @@
         <v>5</v>
       </c>
       <c r="E43">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F43">
-        <v>123</v>
+        <v>123132</v>
       </c>
       <c r="G43">
-        <v>2123</v>
+        <v>123123</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1468,6 +1471,10 @@
       <c r="C44">
         <v>555777999</v>
       </c>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
@@ -1479,6 +1486,10 @@
       <c r="C45" t="s">
         <v>32</v>
       </c>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
@@ -1490,6 +1501,10 @@
       <c r="C46">
         <v>20189596</v>
       </c>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
@@ -1501,6 +1516,10 @@
       <c r="C47">
         <v>87767766</v>
       </c>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
@@ -1512,8 +1531,12 @@
       <c r="C48">
         <v>123</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>27</v>
       </c>
@@ -1523,8 +1546,12 @@
       <c r="C49">
         <v>242432</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>28</v>
       </c>
@@ -1534,14 +1561,23 @@
       <c r="C50">
         <v>132123</v>
       </c>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/clientes_exportados.xlsx
+++ b/clientes_exportados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -59,51 +59,51 @@
     <t>Roberto Andres Ledesma</t>
   </si>
   <si>
+    <t>MANUEL CALDERON ESTRADA</t>
+  </si>
+  <si>
     <t>ANA MARIA CARREIRA GEORGIEVA</t>
   </si>
   <si>
-    <t>MANUEL CALDERON ESTRADA</t>
-  </si>
-  <si>
     <t>Educardo Ponce Moraga</t>
   </si>
   <si>
+    <t>TERESA IBAÑEZ DE DIEGO</t>
+  </si>
+  <si>
+    <t>Prueba modificacion de campos</t>
+  </si>
+  <si>
+    <t>Marty McFly</t>
+  </si>
+  <si>
+    <t>adsad</t>
+  </si>
+  <si>
     <t>contacto añadido</t>
   </si>
   <si>
-    <t>Marty McFly</t>
-  </si>
-  <si>
-    <t>TERESA IBAÑEZ DE DIEGO</t>
-  </si>
-  <si>
-    <t>adsad</t>
-  </si>
-  <si>
-    <t>Prueba modificacion de campos</t>
-  </si>
-  <si>
     <t>Cristina Martín</t>
   </si>
   <si>
+    <t>Probando alta de contactos</t>
+  </si>
+  <si>
+    <t>Añadiendo contactos</t>
+  </si>
+  <si>
+    <t>Contacto nuevo</t>
+  </si>
+  <si>
     <t xml:space="preserve">prueba contacto refresh </t>
   </si>
   <si>
+    <t>qwerty</t>
+  </si>
+  <si>
     <t>prueba contacto refresg</t>
   </si>
   <si>
-    <t>Probando alta de contactos</t>
-  </si>
-  <si>
-    <t>Contacto nuevo</t>
-  </si>
-  <si>
-    <t>qwerty</t>
-  </si>
-  <si>
-    <t>Añadiendo contactos</t>
-  </si>
-  <si>
     <t>remodificado</t>
   </si>
   <si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Hola que tal</t>
-  </si>
-  <si>
-    <t>qweqwe</t>
   </si>
 </sst>
 </file>
@@ -464,7 +461,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,959 +609,461 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>776648373</v>
+        <v>645678954</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>634576838</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>776648373</v>
+        <v>645678954</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>123456789</v>
+        <v>984502393</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>776648373</v>
+        <v>654321987</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>876543987</v>
+        <v>987654321</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>776648373</v>
+        <v>654321987</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>564387267</v>
+        <v>12313</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>776648373</v>
+        <v>654321987</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>904858234</v>
+        <v>555555555</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>645678954</v>
+        <v>654321987</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>984502393</v>
+        <v>12123</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>645678954</v>
+        <v>654321987</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G13">
-        <v>123456789</v>
+        <v>123123</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>645678954</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>123</v>
       </c>
       <c r="G14">
-        <v>123456789</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>645678954</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G15">
-        <v>984502393</v>
+        <v>1231321321</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>654321987</v>
+        <v>645678954</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G16">
-        <v>123123</v>
+        <v>13123123</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>654321987</v>
+        <v>645678954</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G17">
-        <v>555555555</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>654321987</v>
+        <v>645678954</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G18">
-        <v>123123</v>
+        <v>242432</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>654321987</v>
+        <v>645678954</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G19">
-        <v>987654321</v>
+        <v>12341234</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>654321987</v>
+        <v>645678954</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G20">
-        <v>12123</v>
+        <v>123123123</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>654321987</v>
+        <v>456</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>33</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>123</v>
       </c>
       <c r="G21">
-        <v>12313</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>654321987</v>
+        <v>456</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>123132</v>
       </c>
       <c r="G22">
-        <v>12123</v>
+        <v>123123</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>654321987</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>33</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23">
-        <v>12313</v>
-      </c>
+        <v>555777999</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <v>654321987</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>40</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24">
-        <v>555555555</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C25">
-        <v>654321987</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25">
-        <v>987654321</v>
-      </c>
+        <v>20189596</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C26">
-        <v>645678954</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>25</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26">
-        <v>242432</v>
-      </c>
+        <v>87767766</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>645678954</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>28</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27">
-        <v>123123123</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>645678954</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>28</v>
-      </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28">
-        <v>123123123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29">
-        <v>645678954</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29">
-        <v>1231321321</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30">
-        <v>645678954</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>20</v>
-      </c>
-      <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30">
-        <v>1231321321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31">
-        <v>645678954</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32">
-        <v>645678954</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33">
-        <v>645678954</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>27</v>
-      </c>
-      <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33">
-        <v>12341234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34">
-        <v>645678954</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>27</v>
-      </c>
-      <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34">
-        <v>12341234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35">
-        <v>645678954</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35">
-        <v>19</v>
-      </c>
-      <c r="F35">
-        <v>123</v>
-      </c>
-      <c r="G35">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36">
-        <v>645678954</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <v>19</v>
-      </c>
-      <c r="F36">
-        <v>123</v>
-      </c>
-      <c r="G36">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37">
-        <v>645678954</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37">
-        <v>21</v>
-      </c>
-      <c r="F37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37">
-        <v>13123123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38">
-        <v>645678954</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>21</v>
-      </c>
-      <c r="F38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38">
-        <v>13123123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39">
-        <v>645678954</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <v>25</v>
-      </c>
-      <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39">
         <v>242432</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40">
-        <v>456</v>
-      </c>
-      <c r="D40">
-        <v>5</v>
-      </c>
-      <c r="E40">
-        <v>36</v>
-      </c>
-      <c r="F40">
-        <v>123</v>
-      </c>
-      <c r="G40">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41">
-        <v>456</v>
-      </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41">
-        <v>37</v>
-      </c>
-      <c r="F41">
-        <v>123132</v>
-      </c>
-      <c r="G41">
-        <v>123123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42">
-        <v>456</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-      <c r="E42">
-        <v>36</v>
-      </c>
-      <c r="F42">
-        <v>123</v>
-      </c>
-      <c r="G42">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43">
-        <v>456</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>37</v>
-      </c>
-      <c r="F43">
-        <v>123132</v>
-      </c>
-      <c r="G43">
-        <v>123123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44">
-        <v>555777999</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46">
-        <v>20189596</v>
-      </c>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>14</v>
-      </c>
-      <c r="B47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47">
-        <v>87767766</v>
-      </c>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>26</v>
-      </c>
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48">
-        <v>123</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49">
-        <v>242432</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
-        <v>28</v>
-      </c>
-      <c r="B50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50">
-        <v>132123</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/clientes_exportados.xlsx
+++ b/clientes_exportados.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
-    <sheet name="clientes_exportados" sheetId="1" r:id="rId4"/>
+    <sheet name="clientes_exportados" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -122,20 +126,15 @@
     <t>Alta 6 de Abril de 2018</t>
   </si>
   <si>
-    <t>Hola que tal</t>
+    <t>modificación importando</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -146,28 +145,29 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -457,17 +457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -985,10 +982,6 @@
       <c r="C23">
         <v>555777999</v>
       </c>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
@@ -1000,10 +993,6 @@
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
@@ -1015,10 +1004,6 @@
       <c r="C25">
         <v>20189596</v>
       </c>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
@@ -1030,53 +1015,36 @@
       <c r="C26">
         <v>87767766</v>
       </c>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
       <c r="C27">
-        <v>123</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
+        <v>242432</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C28">
-        <v>242432</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
+        <v>33333</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/clientes_exportados.xlsx
+++ b/clientes_exportados.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="clientes_exportados" sheetId="1" r:id="rId1"/>
+    <sheet name="clientes_exportados" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -48,15 +44,15 @@
     <t>ANTONIO MARIÑO CARRION</t>
   </si>
   <si>
-    <t>TERESA BERTRAN PAREJO</t>
-  </si>
-  <si>
     <t>ALBA MUÑOZ MONTSERRAT</t>
   </si>
   <si>
     <t>DANIEL BERNAT SOBRINO</t>
   </si>
   <si>
+    <t>añadido importado</t>
+  </si>
+  <si>
     <t>María Navarro Velazquez</t>
   </si>
   <si>
@@ -103,9 +99,6 @@
   </si>
   <si>
     <t>qwerty</t>
-  </si>
-  <si>
-    <t>prueba contacto refresg</t>
   </si>
   <si>
     <t>remodificado</t>
@@ -132,9 +125,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -145,29 +143,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -457,14 +454,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -526,13 +526,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3">
-        <v>876543987</v>
+        <v>564387267</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -549,13 +549,13 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4">
-        <v>564387267</v>
+        <v>904858234</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -572,13 +572,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5">
-        <v>904858234</v>
+        <v>3333333</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -652,48 +652,48 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>654321987</v>
+        <v>645678954</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>987654321</v>
+        <v>984502393</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>654321987</v>
+        <v>645678954</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>12313</v>
+        <v>984502393</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -710,13 +710,13 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>555555555</v>
+        <v>987654321</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -733,13 +733,13 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12">
-        <v>12123</v>
+        <v>12313</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -756,295 +756,577 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13">
-        <v>123123</v>
+        <v>555555555</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>645678954</v>
+        <v>654321987</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>19</v>
-      </c>
-      <c r="F14">
-        <v>123</v>
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>123</v>
+        <v>12123</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>645678954</v>
+        <v>654321987</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15">
-        <v>1231321321</v>
+        <v>123123</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>645678954</v>
+        <v>654321987</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G16">
-        <v>13123123</v>
+        <v>12313</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>645678954</v>
+        <v>654321987</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G17">
-        <v>123</v>
+        <v>555555555</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>645678954</v>
+        <v>654321987</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G18">
-        <v>242432</v>
+        <v>12123</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>645678954</v>
+        <v>654321987</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G19">
-        <v>12341234</v>
+        <v>123123</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>645678954</v>
+        <v>654321987</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <v>123123123</v>
+        <v>12313</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>456</v>
+        <v>654321987</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>36</v>
-      </c>
-      <c r="F21">
-        <v>123</v>
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
       </c>
       <c r="G21">
-        <v>2123</v>
+        <v>555555555</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>456</v>
+        <v>654321987</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>37</v>
-      </c>
-      <c r="F22">
-        <v>123132</v>
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
       </c>
       <c r="G22">
-        <v>123123</v>
+        <v>12123</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>555777999</v>
+        <v>654321987</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>123123</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>645678954</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>123</v>
+      </c>
+      <c r="G24">
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>20189596</v>
+        <v>645678954</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>1231321321</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>87767766</v>
+        <v>645678954</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>13123123</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <v>242432</v>
+        <v>645678954</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>645678954</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <v>242432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>645678954</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <v>12341234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>456</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>36</v>
+      </c>
+      <c r="F30">
+        <v>123</v>
+      </c>
+      <c r="G30">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>456</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>37</v>
+      </c>
+      <c r="F31">
+        <v>123132</v>
+      </c>
+      <c r="G31">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>456</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>59</v>
+      </c>
+      <c r="F32">
+        <v>123132</v>
+      </c>
+      <c r="G32">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>456</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>74</v>
+      </c>
+      <c r="F33">
+        <v>123132</v>
+      </c>
+      <c r="G33">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>555777999</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>20189596</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>87767766</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>242432</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39">
         <v>33333</v>
       </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/clientes_exportados.xlsx
+++ b/clientes_exportados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -44,15 +44,15 @@
     <t>ANTONIO MARIÑO CARRION</t>
   </si>
   <si>
+    <t>TERESA BERTRAN PAREJO</t>
+  </si>
+  <si>
     <t>ALBA MUÑOZ MONTSERRAT</t>
   </si>
   <si>
     <t>DANIEL BERNAT SOBRINO</t>
   </si>
   <si>
-    <t>añadido importado</t>
-  </si>
-  <si>
     <t>María Navarro Velazquez</t>
   </si>
   <si>
@@ -101,6 +101,9 @@
     <t>qwerty</t>
   </si>
   <si>
+    <t>prueba contacto refresg</t>
+  </si>
+  <si>
     <t>remodificado</t>
   </si>
   <si>
@@ -119,7 +122,16 @@
     <t>Alta 6 de Abril de 2018</t>
   </si>
   <si>
-    <t>modificación importando</t>
+    <t>Hola que tal</t>
+  </si>
+  <si>
+    <t>qweqwe</t>
+  </si>
+  <si>
+    <t>Victor 2123</t>
+  </si>
+  <si>
+    <t>borrado</t>
   </si>
 </sst>
 </file>
@@ -458,7 +470,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,13 +538,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3">
-        <v>564387267</v>
+        <v>876543987</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -549,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4">
-        <v>904858234</v>
+        <v>564387267</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -572,13 +584,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5">
-        <v>3333333</v>
+        <v>904858234</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -595,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -652,48 +664,48 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>654321987</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>645678954</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>48</v>
-      </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>984502393</v>
+        <v>987654321</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>645678954</v>
+        <v>654321987</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>984502393</v>
+        <v>12313</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -710,13 +722,13 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>987654321</v>
+        <v>555555555</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -733,13 +745,13 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>12313</v>
+        <v>12123</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -756,564 +768,349 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G13">
-        <v>555555555</v>
+        <v>123123</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>654321987</v>
+        <v>645678954</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>123</v>
       </c>
       <c r="G14">
-        <v>12123</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>654321987</v>
+        <v>645678954</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15">
-        <v>123123</v>
+        <v>1231321321</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>654321987</v>
+        <v>645678954</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G16">
-        <v>12313</v>
+        <v>13123123</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>654321987</v>
+        <v>645678954</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G17">
-        <v>555555555</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>654321987</v>
+        <v>645678954</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G18">
-        <v>12123</v>
+        <v>242432</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>654321987</v>
+        <v>645678954</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G19">
-        <v>123123</v>
+        <v>12341234</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>654321987</v>
+        <v>645678954</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G20">
-        <v>12313</v>
+        <v>123123123</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>654321987</v>
+        <v>456</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>123</v>
       </c>
       <c r="G21">
-        <v>555555555</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>654321987</v>
+        <v>456</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>66</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>123132</v>
       </c>
       <c r="G22">
-        <v>12123</v>
+        <v>123123</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>654321987</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>67</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23">
-        <v>123123</v>
-      </c>
+        <v>555777999</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>645678954</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>19</v>
-      </c>
-      <c r="F24">
-        <v>123</v>
-      </c>
-      <c r="G24">
-        <v>123</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C25">
-        <v>645678954</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25">
-        <v>1231321321</v>
-      </c>
+        <v>20189596</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C26">
-        <v>645678954</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26">
-        <v>13123123</v>
-      </c>
+        <v>87767766</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>645678954</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27">
         <v>123</v>
       </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>645678954</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28">
         <v>242432</v>
       </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C29">
-        <v>645678954</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29">
-        <v>12341234</v>
-      </c>
+        <v>132123</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C30">
-        <v>456</v>
+        <v>123123</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E30">
-        <v>36</v>
-      </c>
-      <c r="F30">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30">
         <v>123</v>
       </c>
-      <c r="G30">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31">
-        <v>456</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>37</v>
-      </c>
-      <c r="F31">
-        <v>123132</v>
-      </c>
-      <c r="G31">
-        <v>123123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32">
-        <v>456</v>
-      </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32">
-        <v>59</v>
-      </c>
-      <c r="F32">
-        <v>123132</v>
-      </c>
-      <c r="G32">
-        <v>123123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33">
-        <v>456</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33">
-        <v>74</v>
-      </c>
-      <c r="F33">
-        <v>123132</v>
-      </c>
-      <c r="G33">
-        <v>123123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34">
-        <v>555777999</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36">
-        <v>20189596</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37">
-        <v>87767766</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>27</v>
-      </c>
-      <c r="B38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38">
-        <v>242432</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>32</v>
-      </c>
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39">
-        <v>33333</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/clientes_exportados.xlsx
+++ b/clientes_exportados.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
-    <sheet name="clientes_exportados" sheetId="1" r:id="rId4"/>
+    <sheet name="clientes_exportados" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -122,9 +126,6 @@
     <t>Alta 6 de Abril de 2018</t>
   </si>
   <si>
-    <t>Hola que tal</t>
-  </si>
-  <si>
     <t>qweqwe</t>
   </si>
   <si>
@@ -132,19 +133,17 @@
   </si>
   <si>
     <t>borrado</t>
+  </si>
+  <si>
+    <t>Hi how are you</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -155,28 +154,29 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -466,17 +466,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -994,10 +991,6 @@
       <c r="C23">
         <v>555777999</v>
       </c>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
@@ -1009,10 +1002,6 @@
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
@@ -1024,10 +1013,6 @@
       <c r="C25">
         <v>20189596</v>
       </c>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
@@ -1039,91 +1024,70 @@
       <c r="C26">
         <v>87767766</v>
       </c>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
       <c r="C27">
-        <v>123</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
+        <v>242432</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C28">
-        <v>242432</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
+        <v>132123</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
       <c r="C29">
-        <v>132123</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
+        <v>123123</v>
+      </c>
+      <c r="D29">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30">
-        <v>123123</v>
-      </c>
-      <c r="D30">
-        <v>29</v>
-      </c>
-      <c r="E30">
-        <v>43</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30">
-        <v>123</v>
+        <v>55555</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/clientes_exportados.xlsx
+++ b/clientes_exportados.xlsx
@@ -135,7 +135,7 @@
     <t>borrado</t>
   </si>
   <si>
-    <t>Hi how are you</t>
+    <t>importado excel</t>
   </si>
 </sst>
 </file>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1046,6 +1046,18 @@
       <c r="C28">
         <v>132123</v>
       </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <v>22222</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
@@ -1068,17 +1080,6 @@
       </c>
       <c r="G29">
         <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30">
-        <v>55555</v>
       </c>
     </row>
   </sheetData>

--- a/clientes_exportados.xlsx
+++ b/clientes_exportados.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="clientes_exportados" sheetId="1" r:id="rId1"/>
+    <sheet name="clientes_exportados" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -130,20 +126,19 @@
   </si>
   <si>
     <t>Victor 2123</t>
-  </si>
-  <si>
-    <t>borrado</t>
-  </si>
-  <si>
-    <t>importado excel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -154,29 +149,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -466,14 +460,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -991,6 +988,10 @@
       <c r="C23">
         <v>555777999</v>
       </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
@@ -1002,6 +1003,10 @@
       <c r="C24" t="s">
         <v>32</v>
       </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
@@ -1013,6 +1018,10 @@
       <c r="C25">
         <v>20189596</v>
       </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
@@ -1024,6 +1033,10 @@
       <c r="C26">
         <v>87767766</v>
       </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
@@ -1035,10 +1048,14 @@
       <c r="C27">
         <v>242432</v>
       </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -1046,22 +1063,14 @@
       <c r="C28">
         <v>132123</v>
       </c>
-      <c r="D28">
-        <v>28</v>
-      </c>
-      <c r="E28">
-        <v>44</v>
-      </c>
-      <c r="F28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28">
-        <v>22222</v>
-      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
@@ -1069,26 +1078,23 @@
       <c r="C29">
         <v>123123</v>
       </c>
-      <c r="D29">
-        <v>29</v>
-      </c>
-      <c r="E29">
-        <v>43</v>
-      </c>
-      <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29">
-        <v>123</v>
-      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>